--- a/docs/others/pc.xlsx
+++ b/docs/others/pc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyujie/Documents/vscode/mkdocs-site/docs/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE301CB-3014-564B-B9B3-726700191F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25F5A20-DD52-1D47-B051-BE5BA2F85A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AD5A31A1-4454-A74E-8B2A-0D7B6909E36D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{AD5A31A1-4454-A74E-8B2A-0D7B6909E36D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i5-13600kf 盒装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微星 B760M 爆破弹wifi D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金百达 黑刃 海力士A D5 C34 6800 16G*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,11 +104,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利民 PA120 SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微星 B760M 迫击炮wifi D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">i5-13600kf </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利民 PA120 SE 黑色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE12FE8-C372-DB4B-82E2-F85A90DF1821}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -517,38 +517,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1999</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2963</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>829</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>4529</v>
@@ -556,13 +552,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>639</v>
@@ -570,13 +566,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>269</v>
@@ -584,13 +580,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>122</v>
@@ -598,13 +594,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>323</v>
@@ -612,13 +608,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>219</v>
@@ -626,18 +622,20 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1">
         <f>SUM(D2:D9)</f>
-        <v>8929</v>
+        <v>9064</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
